--- a/data/input/employee_absence_data_6.xlsx
+++ b/data/input/employee_absence_data_6.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49157</v>
+        <v>82237</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rael Rodrigues</t>
+          <t>Heloísa Marques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,27 +482,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45100</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>3931.2</v>
+        <v>9770.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8623</v>
+        <v>60457</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sra. Alice Vieira</t>
+          <t>Matteo Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,201 +511,201 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45093</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>4212.91</v>
+        <v>7171.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>79086</v>
+        <v>8835</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Isadora Nunes</t>
+          <t>Josué Cirino</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45086</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>4911.46</v>
+        <v>5994.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>47879</v>
+        <v>91157</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Paulo Rezende</t>
+          <t>Ana Julia Cavalcante</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>10808.24</v>
+        <v>6202.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>54611</v>
+        <v>97591</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João Ribeiro</t>
+          <t>Sr. Yago Araújo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45083</v>
+        <v>45096</v>
       </c>
       <c r="G6" t="n">
-        <v>3363.28</v>
+        <v>5530.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>44208</v>
+        <v>73184</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Daniel Macedo</t>
+          <t>Maya da Cunha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>10136.69</v>
+        <v>6779.41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15196</v>
+        <v>86109</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Otto Pacheco</t>
+          <t>Clarice Marques</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45088</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>4578.25</v>
+        <v>7273.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22454</v>
+        <v>80625</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mariah da Rosa</t>
+          <t>Bárbara Caldeira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45096</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>6826.87</v>
+        <v>4408.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>46345</v>
+        <v>81353</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Josué Gomes</t>
+          <t>Lucas Gabriel Gonçalves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,42 +714,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>5264.66</v>
+        <v>4973.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>38887</v>
+        <v>25260</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Laís Gonçalves</t>
+          <t>Paulo da Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45086</v>
+        <v>45096</v>
       </c>
       <c r="G11" t="n">
-        <v>3239.12</v>
+        <v>8040.68</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_6.xlsx
+++ b/data/input/employee_absence_data_6.xlsx
@@ -464,74 +464,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82237</v>
+        <v>89825</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heloísa Marques</t>
+          <t>Rafaela Câmara</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45079</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>9770.16</v>
+        <v>2383.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>60457</v>
+        <v>88008</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Matteo Rocha</t>
+          <t>Lorenzo Freitas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45104</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>7171.14</v>
+        <v>7377.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8835</v>
+        <v>61751</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Josué Cirino</t>
+          <t>Vitor Mendes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,22 +540,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45082</v>
+        <v>45105</v>
       </c>
       <c r="G4" t="n">
-        <v>5994.21</v>
+        <v>8845.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91157</v>
+        <v>42322</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Julia Cavalcante</t>
+          <t>Rafael Mendonça</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,89 +565,89 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45081</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>6202.25</v>
+        <v>8018.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97591</v>
+        <v>72609</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Yago Araújo</t>
+          <t>Leandro Peixoto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="G6" t="n">
-        <v>5530.53</v>
+        <v>4725.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73184</v>
+        <v>18798</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maya da Cunha</t>
+          <t>Pedro Miguel Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45102</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>6779.41</v>
+        <v>5739.41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>86109</v>
+        <v>47132</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Clarice Marques</t>
+          <t>Pedro Miguel Barros</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,100 +656,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45102</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>7273.03</v>
+        <v>9368.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80625</v>
+        <v>90454</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bárbara Caldeira</t>
+          <t>Yasmin Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45092</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>4408.59</v>
+        <v>8169.46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>81353</v>
+        <v>26240</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Gonçalves</t>
+          <t>Sra. Isis Freitas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45092</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>4973.45</v>
+        <v>2274.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25260</v>
+        <v>78712</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Paulo da Cunha</t>
+          <t>João Guilherme Sampaio</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>8040.68</v>
+        <v>8422.700000000001</v>
       </c>
     </row>
   </sheetData>
